--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -84,10 +84,13 @@
     <t xml:space="preserve">12-20-2001</t>
   </si>
   <si>
+    <t xml:space="preserve">True Format: mm/dd/yyyy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">anhtaiulevan@gmail.com</t>
+    <t xml:space="preserve">Uenhi4234@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
@@ -96,7 +99,8 @@
     <t xml:space="preserve">Create Account</t>
   </si>
   <si>
-    <t xml:space="preserve">Validate Login</t>
+    <t xml:space="preserve">Validate 
+Login, Register</t>
   </si>
   <si>
     <t xml:space="preserve">Wrong Email</t>
@@ -108,10 +112,22 @@
     <t xml:space="preserve">Wrong Password </t>
   </si>
   <si>
+    <t xml:space="preserve">Wrong Birthday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Search</t>
   </si>
   <si>
+    <t xml:space="preserve">Name</t>
+  </si>
+  <si>
     <t xml:space="preserve">dac nhan tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdfasdfsadf</t>
   </si>
 </sst>
 </file>
@@ -303,16 +319,16 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.35"/>
   </cols>
   <sheetData>
@@ -426,22 +442,24 @@
       <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>123456789</v>
@@ -451,58 +469,81 @@
     <row r="16" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>24</v>
+      <c r="A17" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>123456</v>
+        <v>1234</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="C19" s="5" t="n">
+        <v>12202001</v>
+      </c>
       <c r="D19" s="14"/>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" s="7" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+    </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://nhanvan.vn/"/>
-    <hyperlink ref="C14" r:id="rId2" display="anhtaiulevan@gmail.com"/>
-    <hyperlink ref="C17" r:id="rId3" display="anhtan@gmail.com"/>
+    <hyperlink ref="C17" r:id="rId2" display="anhtan@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -90,7 +90,22 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Uenhi4234@gmail.com</t>
+    <t xml:space="preserve">uni1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check success register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uni3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate password</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
@@ -104,9 +119,6 @@
   </si>
   <si>
     <t xml:space="preserve">Wrong Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anhtan@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Wrong Password </t>
@@ -138,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -182,6 +194,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -239,7 +257,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -294,6 +312,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -317,18 +339,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="48.35"/>
   </cols>
   <sheetData>
@@ -454,96 +476,116 @@
       <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>123456789</v>
-      </c>
-      <c r="D15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
-      <c r="B16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="5" t="n">
+      <c r="B18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="n">
         <v>1234</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>12202001</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" s="7" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="n">
+        <v>12202001</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0"/>
-      <c r="B22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4"/>
+      <c r="B23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A21"/>
+  <mergeCells count="4">
+    <mergeCell ref="A9:A18"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" display="https://nhanvan.vn/"/>
-    <hyperlink ref="C17" r:id="rId2" display="anhtan@gmail.com"/>
+    <hyperlink ref="C15" r:id="rId2" display="uni2@gmail.com"/>
+    <hyperlink ref="C16" r:id="rId3" display="uni3@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Module</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wrong Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anhtan</t>
   </si>
   <si>
     <t xml:space="preserve">Wrong Password </t>
@@ -150,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -194,12 +197,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -257,7 +254,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -312,10 +309,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -341,11 +334,11 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9765625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.38"/>
@@ -483,7 +476,7 @@
     <row r="15" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -493,7 +486,7 @@
     <row r="16" s="7" customFormat="true" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -527,48 +520,50 @@
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="15"/>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" s="7" customFormat="true" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="5" t="n">
         <v>1234</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
       <c r="B21" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="5" t="n">
         <v>12202001</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="15"/>
+        <v>37</v>
+      </c>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
       <c r="B23" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D23" s="6"/>
     </row>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">uni1@gmail.com</t>
+    <t xml:space="preserve">uni142001@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Check success register</t>
@@ -334,11 +334,11 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.38"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">uni142001@gmail.com</t>
+    <t xml:space="preserve">uni132001@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Check success register</t>
@@ -334,7 +334,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -90,7 +90,7 @@
     <t xml:space="preserve">Email</t>
   </si>
   <si>
-    <t xml:space="preserve">uni132001@gmail.com</t>
+    <t xml:space="preserve">uni13200143@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Check success register</t>
@@ -334,7 +334,7 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
